--- a/walm.xlsx
+++ b/walm.xlsx
@@ -1,38 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unicorvinus-my.sharepoint.com/personal/andras_salamon_stud_uni-corvinus_hu/Documents/Dokumentumok/asuli/9 félév/bizonytalansag/ppa/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2BB1D69C5B20D8E1A091F5914A18D872526BFF32" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96F844EE-E8F0-45C8-8A7A-4F836C2BF16B}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>WAL = WAM</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,9 +29,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,23 +75,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -392,24 +371,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>45048</v>
       </c>
@@ -417,7 +391,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>45049</v>
       </c>
@@ -425,7 +399,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>45050</v>
       </c>
@@ -433,7 +407,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>45051</v>
       </c>
@@ -441,7 +415,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>45054</v>
       </c>
@@ -449,7 +423,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>45055</v>
       </c>
@@ -457,7 +431,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>45056</v>
       </c>
@@ -465,7 +439,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>45057</v>
       </c>
@@ -473,7 +447,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>45058</v>
       </c>
@@ -481,7 +455,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>45061</v>
       </c>
@@ -489,7 +463,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>45062</v>
       </c>
@@ -497,7 +471,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>45063</v>
       </c>
@@ -505,7 +479,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>45064</v>
       </c>
@@ -513,7 +487,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>45065</v>
       </c>
@@ -521,7 +495,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>45068</v>
       </c>
@@ -529,7 +503,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>45069</v>
       </c>
@@ -537,7 +511,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>45070</v>
       </c>
@@ -545,7 +519,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>45071</v>
       </c>
@@ -553,7 +527,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>45072</v>
       </c>
@@ -561,7 +535,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>45076</v>
       </c>
@@ -569,7 +543,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>45077</v>
       </c>
@@ -577,7 +551,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>45078</v>
       </c>
@@ -585,7 +559,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>45079</v>
       </c>
@@ -593,7 +567,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>45082</v>
       </c>
@@ -601,7 +575,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>45083</v>
       </c>
@@ -609,7 +583,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>45084</v>
       </c>
@@ -617,7 +591,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>45085</v>
       </c>
@@ -625,7 +599,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>45086</v>
       </c>
@@ -633,7 +607,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>45089</v>
       </c>
@@ -641,7 +615,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>45090</v>
       </c>
@@ -649,7 +623,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>45091</v>
       </c>
@@ -657,7 +631,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>45092</v>
       </c>
@@ -665,7 +639,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>45093</v>
       </c>
@@ -673,7 +647,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>45096</v>
       </c>
@@ -681,7 +655,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>45097</v>
       </c>
@@ -689,7 +663,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>45098</v>
       </c>
@@ -697,7 +671,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>45099</v>
       </c>
@@ -705,7 +679,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>45100</v>
       </c>
@@ -713,7 +687,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>45103</v>
       </c>
@@ -721,7 +695,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>45104</v>
       </c>
@@ -729,7 +703,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>45105</v>
       </c>
@@ -737,7 +711,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>45106</v>
       </c>
@@ -745,7 +719,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>45107</v>
       </c>
@@ -754,6 +728,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>